--- a/加班报销费用.xlsx
+++ b/加班报销费用.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>未给票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李强、王健、胡大强、宋玉美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,13 +1202,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1233,29 +1247,46 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2017116</v>
+        <v>20170114</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20171116</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>20171102</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
     </row>

--- a/加班报销费用.xlsx
+++ b/加班报销费用.xlsx
@@ -1202,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,14 +1279,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>20171102</v>
       </c>
-      <c r="C9">
+      <c r="C5">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E5" t="s">
         <v>47</v>
       </c>
     </row>
